--- a/Tables/Sources/gameplay/Synthesis/FoodSynthesisConfig.xlsx
+++ b/Tables/Sources/gameplay/Synthesis/FoodSynthesisConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18060"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,19 +31,19 @@
     <t>说明</t>
   </si>
   <si>
-    <t>制作材料</t>
+    <t>制作材料（id|数量）</t>
   </si>
   <si>
     <t>增益效果</t>
   </si>
   <si>
-    <t>增益效率</t>
-  </si>
-  <si>
-    <t>维持时长分钟</t>
-  </si>
-  <si>
-    <t>制作时间（分钟）</t>
+    <t>增益效率（%）</t>
+  </si>
+  <si>
+    <t>维持时长（s）</t>
+  </si>
+  <si>
+    <t>制作时间（s）</t>
   </si>
   <si>
     <t>A</t>
@@ -201,8 +201,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -223,6 +223,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -230,7 +237,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,6 +251,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -252,17 +303,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -275,91 +360,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -387,25 +387,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,139 +543,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,22 +596,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,17 +626,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,17 +653,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,16 +673,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,133 +711,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1203,7 +1203,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/Tables/Sources/gameplay/Synthesis/FoodSynthesisConfig.xlsx
+++ b/Tables/Sources/gameplay/Synthesis/FoodSynthesisConfig.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowHeight="18060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
@@ -17,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -37,7 +40,7 @@
     <t>增益效果</t>
   </si>
   <si>
-    <t>增益效率（%）</t>
+    <t>增益效率（%增加岛资源产出效率）</t>
   </si>
   <si>
     <t>维持时长（s）</t>
@@ -46,6 +49,15 @@
     <t>制作时间（s）</t>
   </si>
   <si>
+    <t>材料名称</t>
+  </si>
+  <si>
+    <t>材料id</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -91,13 +103,19 @@
     <t>SnapperInCevicheSauce</t>
   </si>
   <si>
+    <t>A good thing.</t>
+  </si>
+  <si>
     <t>Food_AddIslandOutput</t>
   </si>
   <si>
     <t>鲷鱼</t>
   </si>
   <si>
-    <t>bream</t>
+    <t>橘子</t>
+  </si>
+  <si>
+    <t>金币</t>
   </si>
   <si>
     <t>碳烤银鲳</t>
@@ -109,7 +127,7 @@
     <t>银鲳</t>
   </si>
   <si>
-    <t>pomfret</t>
+    <t>辣椒</t>
   </si>
   <si>
     <t>土豆鱿鱼卷</t>
@@ -121,7 +139,7 @@
     <t>鱿鱼</t>
   </si>
   <si>
-    <t>squid</t>
+    <t>土豆</t>
   </si>
   <si>
     <t>柠檬金枪鱼片</t>
@@ -133,7 +151,7 @@
     <t>金枪鱼</t>
   </si>
   <si>
-    <t>tuna</t>
+    <t>柠檬</t>
   </si>
   <si>
     <t>迷迭香鲨鱼肉</t>
@@ -145,7 +163,7 @@
     <t>鲨鱼</t>
   </si>
   <si>
-    <t>shark</t>
+    <t>迷迭香</t>
   </si>
   <si>
     <t>番茄章鱼烧</t>
@@ -157,43 +175,7 @@
     <t>大章鱼</t>
   </si>
   <si>
-    <t>octopuss</t>
-  </si>
-  <si>
-    <t>橘子</t>
-  </si>
-  <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t>辣椒</t>
-  </si>
-  <si>
-    <t>pepper</t>
-  </si>
-  <si>
-    <t>土豆</t>
-  </si>
-  <si>
-    <t>potato</t>
-  </si>
-  <si>
-    <t>柠檬</t>
-  </si>
-  <si>
-    <t>lemon</t>
-  </si>
-  <si>
-    <t>迷迭香</t>
-  </si>
-  <si>
-    <t>rosemary</t>
-  </si>
-  <si>
     <t>番茄</t>
-  </si>
-  <si>
-    <t>tomato</t>
   </si>
 </sst>
 </file>
@@ -202,9 +184,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -222,22 +204,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,82 +217,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -343,6 +236,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -352,8 +281,31 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,6 +317,36 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -387,187 +369,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,6 +574,54 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,54 +665,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -699,10 +681,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,137 +693,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -850,6 +832,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -911,6 +902,308 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>石材</v>
+          </cell>
+          <cell r="B5">
+            <v>1001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>木材</v>
+          </cell>
+          <cell r="B6">
+            <v>1002</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>铁矿</v>
+          </cell>
+          <cell r="B7">
+            <v>1003</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>铁</v>
+          </cell>
+          <cell r="B8">
+            <v>1004</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>钢</v>
+          </cell>
+          <cell r="B9">
+            <v>1005</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>硝石矿</v>
+          </cell>
+          <cell r="B10">
+            <v>1006</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>硝石</v>
+          </cell>
+          <cell r="B11">
+            <v>1007</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>火药</v>
+          </cell>
+          <cell r="B12">
+            <v>1008</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>兽皮</v>
+          </cell>
+          <cell r="B13">
+            <v>1009</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>皮革</v>
+          </cell>
+          <cell r="B14">
+            <v>1010</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>精皮革</v>
+          </cell>
+          <cell r="B15">
+            <v>1011</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>红水晶</v>
+          </cell>
+          <cell r="B16">
+            <v>1012</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>紫水晶</v>
+          </cell>
+          <cell r="B17">
+            <v>1013</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>黑水晶</v>
+          </cell>
+          <cell r="B18">
+            <v>1014</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>红宝石</v>
+          </cell>
+          <cell r="B19">
+            <v>1015</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>紫宝石</v>
+          </cell>
+          <cell r="B20">
+            <v>1016</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>黑宝石</v>
+          </cell>
+          <cell r="B21">
+            <v>1017</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>珊瑚</v>
+          </cell>
+          <cell r="B22">
+            <v>1018</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>珍珠</v>
+          </cell>
+          <cell r="B23">
+            <v>1019</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>琥珀</v>
+          </cell>
+          <cell r="B24">
+            <v>1020</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>人鱼眼泪</v>
+          </cell>
+          <cell r="B25">
+            <v>1021</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>神秘黏液</v>
+          </cell>
+          <cell r="B26">
+            <v>1022</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>巨蜥尾巴</v>
+          </cell>
+          <cell r="B27">
+            <v>1023</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>湛蓝羽毛</v>
+          </cell>
+          <cell r="B28">
+            <v>1024</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>鲷鱼</v>
+          </cell>
+          <cell r="B29">
+            <v>1025</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>银鲳</v>
+          </cell>
+          <cell r="B30">
+            <v>1026</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>鱿鱼</v>
+          </cell>
+          <cell r="B31">
+            <v>1027</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>金枪鱼</v>
+          </cell>
+          <cell r="B32">
+            <v>1028</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>鲨鱼</v>
+          </cell>
+          <cell r="B33">
+            <v>1029</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>大章鱼</v>
+          </cell>
+          <cell r="B34">
+            <v>1030</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>辣椒</v>
+          </cell>
+          <cell r="B35">
+            <v>1031</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>橘子</v>
+          </cell>
+          <cell r="B36">
+            <v>1032</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>土豆</v>
+          </cell>
+          <cell r="B37">
+            <v>1033</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>柠檬</v>
+          </cell>
+          <cell r="B38">
+            <v>1034</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>迷迭香</v>
+          </cell>
+          <cell r="B39">
+            <v>1035</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>番茄</v>
+          </cell>
+          <cell r="B40">
+            <v>1036</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1198,12 +1491,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1212,14 +1505,15 @@
     <col min="2" max="3" width="10.8796296296296" style="2" customWidth="1"/>
     <col min="4" max="4" width="16" style="2" customWidth="1"/>
     <col min="5" max="5" width="33.75" style="2" customWidth="1"/>
-    <col min="6" max="7" width="17.1296296296296" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.1296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.1111111111111" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.1111111111111" style="2" customWidth="1"/>
     <col min="9" max="9" width="15.5" style="2" customWidth="1"/>
     <col min="10" max="10" width="19.5" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:10">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1250,122 +1544,179 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="K1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12" spans="1:10">
+    <row r="2" s="1" customFormat="1" ht="12" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="12" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="12" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:19">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2" t="str">
-        <f t="shared" ref="F5:F10" si="0">K5&amp;"|"&amp;N5&amp;";"&amp;K11&amp;"|"&amp;N11</f>
-        <v>100|2;106|4</v>
+        <v>26</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f>L5&amp;"|"&amp;M5&amp;";"&amp;O5&amp;"|"&amp;P5&amp;";"&amp;R5&amp;"|"&amp;S5</f>
+        <v>1025|2;1032|4;-1|1000</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H5" s="2">
         <v>50</v>
@@ -1376,38 +1727,58 @@
       <c r="J5" s="2">
         <v>1</v>
       </c>
-      <c r="K5" s="3">
-        <v>100</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="3">
+      <c r="K5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="2">
+        <f>VLOOKUP(K5,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
+        <v>1025</v>
+      </c>
+      <c r="M5" s="2">
         <v>2</v>
       </c>
+      <c r="N5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="2">
+        <f>VLOOKUP(N5,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
+        <v>1032</v>
+      </c>
+      <c r="P5" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="S5" s="2">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:19">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="F6" s="5" t="str">
+        <f>L6&amp;"|"&amp;M6&amp;";"&amp;O6&amp;"|"&amp;P6&amp;";"&amp;R6&amp;"|"&amp;S6</f>
+        <v>1026|2;1031|4;-1|1000</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>101|2;107|4</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="H6" s="2">
         <v>50</v>
@@ -1418,39 +1789,58 @@
       <c r="J6" s="2">
         <v>2</v>
       </c>
-      <c r="K6" s="3">
-        <f t="shared" ref="K6:K16" si="1">K5+1</f>
-        <v>101</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="3">
+      <c r="K6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="2">
+        <f>VLOOKUP(K6,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
+        <v>1026</v>
+      </c>
+      <c r="M6" s="2">
         <v>2</v>
       </c>
+      <c r="N6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="2">
+        <f>VLOOKUP(N6,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
+        <v>1031</v>
+      </c>
+      <c r="P6" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="S6" s="2">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:19">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>102|2;108|4</v>
+        <v>37</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="5" t="str">
+        <f>L7&amp;"|"&amp;M7&amp;";"&amp;O7&amp;"|"&amp;P7&amp;";"&amp;R7&amp;"|"&amp;S7</f>
+        <v>1027|2;1033|4;-1|1000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H7" s="2">
         <v>100</v>
@@ -1461,39 +1851,58 @@
       <c r="J7" s="2">
         <v>3</v>
       </c>
-      <c r="K7" s="3">
-        <f t="shared" si="1"/>
-        <v>102</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" s="3">
+      <c r="K7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="2">
+        <f>VLOOKUP(K7,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
+        <v>1027</v>
+      </c>
+      <c r="M7" s="2">
         <v>2</v>
       </c>
+      <c r="N7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="2">
+        <f>VLOOKUP(N7,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
+        <v>1033</v>
+      </c>
+      <c r="P7" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:19">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>103|2;109|4</v>
+        <v>41</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="5" t="str">
+        <f>L8&amp;"|"&amp;M8&amp;";"&amp;O8&amp;"|"&amp;P8&amp;";"&amp;R8&amp;"|"&amp;S8</f>
+        <v>1028|2;1034|4;-1|1000</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H8" s="2">
         <v>100</v>
@@ -1504,39 +1913,58 @@
       <c r="J8" s="2">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
-        <f t="shared" si="1"/>
-        <v>103</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="K8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="2">
+        <f>VLOOKUP(K8,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
+        <v>1028</v>
+      </c>
+      <c r="M8" s="2">
         <v>2</v>
       </c>
+      <c r="N8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="2">
+        <f>VLOOKUP(N8,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
+        <v>1034</v>
+      </c>
+      <c r="P8" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:19">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>104|2;110|4</v>
+        <v>45</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="5" t="str">
+        <f>L9&amp;"|"&amp;M9&amp;";"&amp;O9&amp;"|"&amp;P9&amp;";"&amp;R9&amp;"|"&amp;S9</f>
+        <v>1029|2;1035|4;-1|1000</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H9" s="2">
         <v>150</v>
@@ -1547,39 +1975,58 @@
       <c r="J9" s="2">
         <v>5</v>
       </c>
-      <c r="K9" s="3">
-        <f t="shared" si="1"/>
-        <v>104</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="K9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="2">
+        <f>VLOOKUP(K9,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
+        <v>1029</v>
+      </c>
+      <c r="M9" s="2">
         <v>2</v>
       </c>
+      <c r="N9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="2">
+        <f>VLOOKUP(N9,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
+        <v>1035</v>
+      </c>
+      <c r="P9" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="S9" s="2">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:19">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>105|2;111|4</v>
+        <v>49</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="5" t="str">
+        <f>L10&amp;"|"&amp;M10&amp;";"&amp;O10&amp;"|"&amp;P10&amp;";"&amp;R10&amp;"|"&amp;S10</f>
+        <v>1030|2;1036|4;-1|1000</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H10" s="2">
         <v>150</v>
@@ -1590,108 +2037,34 @@
       <c r="J10" s="2">
         <v>6</v>
       </c>
-      <c r="K10" s="3">
-        <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="K10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="2">
+        <f>VLOOKUP(K10,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
+        <v>1030</v>
+      </c>
+      <c r="M10" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="11:14">
-      <c r="K11" s="3">
-        <f t="shared" si="1"/>
-        <v>106</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N11" s="3">
+      <c r="N10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="2">
+        <f>VLOOKUP(N10,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
+        <v>1036</v>
+      </c>
+      <c r="P10" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="11:14">
-      <c r="K12" s="3">
-        <f t="shared" si="1"/>
-        <v>107</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N12" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="11:14">
-      <c r="K13" s="3">
-        <f t="shared" si="1"/>
-        <v>108</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N13" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="11:14">
-      <c r="K14" s="3">
-        <f t="shared" si="1"/>
-        <v>109</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N14" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="11:14">
-      <c r="K15" s="3">
-        <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N15" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="11:14">
-      <c r="K16" s="3">
-        <f t="shared" si="1"/>
-        <v>111</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N16" s="3">
-        <v>4</v>
+      <c r="Q10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="S10" s="2">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Synthesis/FoodSynthesisConfig.xlsx
+++ b/Tables/Sources/gameplay/Synthesis/FoodSynthesisConfig.xlsx
@@ -9,9 +9,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
@@ -183,8 +180,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -204,6 +201,97 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -214,97 +302,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -327,13 +324,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -347,6 +337,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -369,67 +366,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,115 +546,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,16 +576,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,31 +624,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,10 +678,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -693,133 +690,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -902,308 +899,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>石材</v>
-          </cell>
-          <cell r="B5">
-            <v>1001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>木材</v>
-          </cell>
-          <cell r="B6">
-            <v>1002</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>铁矿</v>
-          </cell>
-          <cell r="B7">
-            <v>1003</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>铁</v>
-          </cell>
-          <cell r="B8">
-            <v>1004</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>钢</v>
-          </cell>
-          <cell r="B9">
-            <v>1005</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>硝石矿</v>
-          </cell>
-          <cell r="B10">
-            <v>1006</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>硝石</v>
-          </cell>
-          <cell r="B11">
-            <v>1007</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>火药</v>
-          </cell>
-          <cell r="B12">
-            <v>1008</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>兽皮</v>
-          </cell>
-          <cell r="B13">
-            <v>1009</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>皮革</v>
-          </cell>
-          <cell r="B14">
-            <v>1010</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>精皮革</v>
-          </cell>
-          <cell r="B15">
-            <v>1011</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>红水晶</v>
-          </cell>
-          <cell r="B16">
-            <v>1012</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>紫水晶</v>
-          </cell>
-          <cell r="B17">
-            <v>1013</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>黑水晶</v>
-          </cell>
-          <cell r="B18">
-            <v>1014</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>红宝石</v>
-          </cell>
-          <cell r="B19">
-            <v>1015</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>紫宝石</v>
-          </cell>
-          <cell r="B20">
-            <v>1016</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>黑宝石</v>
-          </cell>
-          <cell r="B21">
-            <v>1017</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>珊瑚</v>
-          </cell>
-          <cell r="B22">
-            <v>1018</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>珍珠</v>
-          </cell>
-          <cell r="B23">
-            <v>1019</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>琥珀</v>
-          </cell>
-          <cell r="B24">
-            <v>1020</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>人鱼眼泪</v>
-          </cell>
-          <cell r="B25">
-            <v>1021</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>神秘黏液</v>
-          </cell>
-          <cell r="B26">
-            <v>1022</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>巨蜥尾巴</v>
-          </cell>
-          <cell r="B27">
-            <v>1023</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>湛蓝羽毛</v>
-          </cell>
-          <cell r="B28">
-            <v>1024</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>鲷鱼</v>
-          </cell>
-          <cell r="B29">
-            <v>1025</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>银鲳</v>
-          </cell>
-          <cell r="B30">
-            <v>1026</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>鱿鱼</v>
-          </cell>
-          <cell r="B31">
-            <v>1027</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>金枪鱼</v>
-          </cell>
-          <cell r="B32">
-            <v>1028</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>鲨鱼</v>
-          </cell>
-          <cell r="B33">
-            <v>1029</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>大章鱼</v>
-          </cell>
-          <cell r="B34">
-            <v>1030</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>辣椒</v>
-          </cell>
-          <cell r="B35">
-            <v>1031</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>橘子</v>
-          </cell>
-          <cell r="B36">
-            <v>1032</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>土豆</v>
-          </cell>
-          <cell r="B37">
-            <v>1033</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>柠檬</v>
-          </cell>
-          <cell r="B38">
-            <v>1034</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39" t="str">
-            <v>迷迭香</v>
-          </cell>
-          <cell r="B39">
-            <v>1035</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40" t="str">
-            <v>番茄</v>
-          </cell>
-          <cell r="B40">
-            <v>1036</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1496,7 +1191,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5:E10"/>
+      <selection pane="bottomLeft" activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1712,7 +1407,7 @@
         <v>27</v>
       </c>
       <c r="F5" s="5" t="str">
-        <f>L5&amp;"|"&amp;M5&amp;";"&amp;O5&amp;"|"&amp;P5&amp;";"&amp;R5&amp;"|"&amp;S5</f>
+        <f t="shared" ref="F5:F10" si="0">L5&amp;"|"&amp;M5&amp;";"&amp;O5&amp;"|"&amp;P5&amp;";"&amp;R5&amp;"|"&amp;S5</f>
         <v>1025|2;1032|4;-1|1000</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -1731,7 +1426,6 @@
         <v>29</v>
       </c>
       <c r="L5" s="2">
-        <f>VLOOKUP(K5,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1025</v>
       </c>
       <c r="M5" s="2">
@@ -1741,7 +1435,6 @@
         <v>30</v>
       </c>
       <c r="O5" s="2">
-        <f>VLOOKUP(N5,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1032</v>
       </c>
       <c r="P5" s="2">
@@ -1774,7 +1467,7 @@
         <v>27</v>
       </c>
       <c r="F6" s="5" t="str">
-        <f>L6&amp;"|"&amp;M6&amp;";"&amp;O6&amp;"|"&amp;P6&amp;";"&amp;R6&amp;"|"&amp;S6</f>
+        <f t="shared" si="0"/>
         <v>1026|2;1031|4;-1|1000</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -1793,7 +1486,6 @@
         <v>34</v>
       </c>
       <c r="L6" s="2">
-        <f>VLOOKUP(K6,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1026</v>
       </c>
       <c r="M6" s="2">
@@ -1803,7 +1495,6 @@
         <v>35</v>
       </c>
       <c r="O6" s="2">
-        <f>VLOOKUP(N6,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1031</v>
       </c>
       <c r="P6" s="2">
@@ -1836,7 +1527,7 @@
         <v>27</v>
       </c>
       <c r="F7" s="5" t="str">
-        <f>L7&amp;"|"&amp;M7&amp;";"&amp;O7&amp;"|"&amp;P7&amp;";"&amp;R7&amp;"|"&amp;S7</f>
+        <f t="shared" si="0"/>
         <v>1027|2;1033|4;-1|1000</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -1855,7 +1546,6 @@
         <v>38</v>
       </c>
       <c r="L7" s="2">
-        <f>VLOOKUP(K7,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1027</v>
       </c>
       <c r="M7" s="2">
@@ -1865,7 +1555,6 @@
         <v>39</v>
       </c>
       <c r="O7" s="2">
-        <f>VLOOKUP(N7,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1033</v>
       </c>
       <c r="P7" s="2">
@@ -1898,7 +1587,7 @@
         <v>27</v>
       </c>
       <c r="F8" s="5" t="str">
-        <f>L8&amp;"|"&amp;M8&amp;";"&amp;O8&amp;"|"&amp;P8&amp;";"&amp;R8&amp;"|"&amp;S8</f>
+        <f t="shared" si="0"/>
         <v>1028|2;1034|4;-1|1000</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -1917,7 +1606,6 @@
         <v>42</v>
       </c>
       <c r="L8" s="2">
-        <f>VLOOKUP(K8,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1028</v>
       </c>
       <c r="M8" s="2">
@@ -1927,7 +1615,6 @@
         <v>43</v>
       </c>
       <c r="O8" s="2">
-        <f>VLOOKUP(N8,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1034</v>
       </c>
       <c r="P8" s="2">
@@ -1960,7 +1647,7 @@
         <v>27</v>
       </c>
       <c r="F9" s="5" t="str">
-        <f>L9&amp;"|"&amp;M9&amp;";"&amp;O9&amp;"|"&amp;P9&amp;";"&amp;R9&amp;"|"&amp;S9</f>
+        <f t="shared" si="0"/>
         <v>1029|2;1035|4;-1|1000</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -1979,7 +1666,6 @@
         <v>46</v>
       </c>
       <c r="L9" s="2">
-        <f>VLOOKUP(K9,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1029</v>
       </c>
       <c r="M9" s="2">
@@ -1989,7 +1675,6 @@
         <v>47</v>
       </c>
       <c r="O9" s="2">
-        <f>VLOOKUP(N9,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1035</v>
       </c>
       <c r="P9" s="2">
@@ -2022,7 +1707,7 @@
         <v>27</v>
       </c>
       <c r="F10" s="5" t="str">
-        <f>L10&amp;"|"&amp;M10&amp;";"&amp;O10&amp;"|"&amp;P10&amp;";"&amp;R10&amp;"|"&amp;S10</f>
+        <f t="shared" si="0"/>
         <v>1030|2;1036|4;-1|1000</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -2041,7 +1726,6 @@
         <v>50</v>
       </c>
       <c r="L10" s="2">
-        <f>VLOOKUP(K10,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1030</v>
       </c>
       <c r="M10" s="2">
@@ -2051,7 +1735,6 @@
         <v>51</v>
       </c>
       <c r="O10" s="2">
-        <f>VLOOKUP(N10,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1036</v>
       </c>
       <c r="P10" s="2">

--- a/Tables/Sources/gameplay/Synthesis/FoodSynthesisConfig.xlsx
+++ b/Tables/Sources/gameplay/Synthesis/FoodSynthesisConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -46,6 +46,9 @@
     <t>制作时间（s）</t>
   </si>
   <si>
+    <t>制作花费</t>
+  </si>
+  <si>
     <t>材料名称</t>
   </si>
   <si>
@@ -94,6 +97,9 @@
     <t>MakeTime</t>
   </si>
   <si>
+    <t>MakeCost</t>
+  </si>
+  <si>
     <t>酸橘汁鲷鱼</t>
   </si>
   <si>
@@ -110,9 +116,6 @@
   </si>
   <si>
     <t>橘子</t>
-  </si>
-  <si>
-    <t>金币</t>
   </si>
   <si>
     <t>碳烤银鲳</t>
@@ -180,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -201,6 +204,94 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -209,44 +300,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,18 +317,18 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -285,65 +341,12 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -366,25 +369,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,25 +501,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,127 +513,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,17 +578,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,20 +602,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,26 +632,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,151 +666,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1186,12 +1189,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="R15" sqref="R15"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1204,11 +1207,11 @@
     <col min="7" max="7" width="22.1111111111111" style="2" customWidth="1"/>
     <col min="8" max="8" width="14.1111111111111" style="2" customWidth="1"/>
     <col min="9" max="9" width="15.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.5" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="10" max="11" width="19.5" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:19">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1239,7 +1242,7 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="6" t="s">
@@ -1249,7 +1252,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>10</v>
@@ -1258,160 +1261,154 @@
         <v>11</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12" spans="1:19">
+    <row r="2" s="1" customFormat="1" ht="12" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="L2" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="12" spans="1:10">
+    <row r="3" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12" spans="1:10">
+    <row r="4" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:17">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F5" s="5" t="str">
-        <f t="shared" ref="F5:F10" si="0">L5&amp;"|"&amp;M5&amp;";"&amp;O5&amp;"|"&amp;P5&amp;";"&amp;R5&amp;"|"&amp;S5</f>
-        <v>1025|2;1032|4;-1|1000</v>
+        <f>M5&amp;"|"&amp;N5&amp;";"&amp;P5&amp;"|"&amp;Q5</f>
+        <v>1025|2;1032|4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2">
         <v>50</v>
@@ -1422,56 +1419,50 @@
       <c r="J5" s="2">
         <v>1</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="2">
+      <c r="K5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="2">
         <v>1025</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>2</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="2">
+      <c r="O5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="2">
         <v>1032</v>
       </c>
-      <c r="P5" s="2">
+      <c r="Q5" s="2">
         <v>4</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R5" s="2">
-        <v>-1</v>
-      </c>
-      <c r="S5" s="2">
-        <v>1000</v>
-      </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:17">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>1026|2;1031|4;-1|1000</v>
+        <f>M6&amp;"|"&amp;N6&amp;";"&amp;P6&amp;"|"&amp;Q6</f>
+        <v>1026|2;1031|4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2">
         <v>50</v>
@@ -1482,56 +1473,50 @@
       <c r="J6" s="2">
         <v>2</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="2">
+      <c r="K6" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="2">
         <v>1026</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <v>2</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O6" s="2">
+      <c r="O6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="2">
         <v>1031</v>
       </c>
-      <c r="P6" s="2">
+      <c r="Q6" s="2">
         <v>4</v>
       </c>
-      <c r="Q6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R6" s="2">
-        <v>-1</v>
-      </c>
-      <c r="S6" s="2">
-        <v>1000</v>
-      </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:17">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>1027|2;1033|4;-1|1000</v>
+        <f>M7&amp;"|"&amp;N7&amp;";"&amp;P7&amp;"|"&amp;Q7</f>
+        <v>1027|2;1033|4</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2">
         <v>100</v>
@@ -1542,56 +1527,50 @@
       <c r="J7" s="2">
         <v>3</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="2">
+      <c r="K7" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="2">
         <v>1027</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>2</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" s="2">
+      <c r="O7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="2">
         <v>1033</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>4</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R7" s="2">
-        <v>-1</v>
-      </c>
-      <c r="S7" s="2">
-        <v>1000</v>
-      </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:17">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F8" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>1028|2;1034|4;-1|1000</v>
+        <f>M8&amp;"|"&amp;N8&amp;";"&amp;P8&amp;"|"&amp;Q8</f>
+        <v>1028|2;1034|4</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2">
         <v>100</v>
@@ -1602,56 +1581,50 @@
       <c r="J8" s="2">
         <v>4</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="2">
+      <c r="K8" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="2">
         <v>1028</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <v>2</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O8" s="2">
+      <c r="O8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="2">
         <v>1034</v>
       </c>
-      <c r="P8" s="2">
+      <c r="Q8" s="2">
         <v>4</v>
       </c>
-      <c r="Q8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R8" s="2">
-        <v>-1</v>
-      </c>
-      <c r="S8" s="2">
-        <v>1000</v>
-      </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:17">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>1029|2;1035|4;-1|1000</v>
+        <f>M9&amp;"|"&amp;N9&amp;";"&amp;P9&amp;"|"&amp;Q9</f>
+        <v>1029|2;1035|4</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2">
         <v>150</v>
@@ -1662,56 +1635,50 @@
       <c r="J9" s="2">
         <v>5</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" s="2">
+      <c r="K9" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="2">
         <v>1029</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>2</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O9" s="2">
+      <c r="O9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" s="2">
         <v>1035</v>
       </c>
-      <c r="P9" s="2">
+      <c r="Q9" s="2">
         <v>4</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R9" s="2">
-        <v>-1</v>
-      </c>
-      <c r="S9" s="2">
-        <v>1000</v>
-      </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:17">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>1030|2;1036|4;-1|1000</v>
+        <f>M10&amp;"|"&amp;N10&amp;";"&amp;P10&amp;"|"&amp;Q10</f>
+        <v>1030|2;1036|4</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H10" s="2">
         <v>150</v>
@@ -1722,32 +1689,26 @@
       <c r="J10" s="2">
         <v>6</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" s="2">
+      <c r="K10" s="2">
+        <v>10000</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="2">
         <v>1030</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <v>2</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O10" s="2">
+      <c r="O10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" s="2">
         <v>1036</v>
       </c>
-      <c r="P10" s="2">
+      <c r="Q10" s="2">
         <v>4</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R10" s="2">
-        <v>-1</v>
-      </c>
-      <c r="S10" s="2">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Synthesis/FoodSynthesisConfig.xlsx
+++ b/Tables/Sources/gameplay/Synthesis/FoodSynthesisConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18060"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -28,6 +28,9 @@
     <t>贴图</t>
   </si>
   <si>
+    <t>品质(道具名称及道具框颜色，1-红色，2-紫色，3-黑色)</t>
+  </si>
+  <si>
     <t>说明</t>
   </si>
   <si>
@@ -77,6 +80,9 @@
   </si>
   <si>
     <t>SpriteName</t>
+  </si>
+  <si>
+    <t>Quality</t>
   </si>
   <si>
     <t>Desc</t>
@@ -184,9 +190,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -205,21 +211,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,6 +224,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -239,8 +254,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,8 +331,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,80 +347,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,187 +375,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,6 +593,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -602,40 +641,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -656,22 +667,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,10 +687,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -693,133 +699,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -831,6 +837,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -839,9 +848,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1189,12 +1195,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K4"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1202,16 +1208,17 @@
     <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
     <col min="2" max="3" width="10.8796296296296" style="2" customWidth="1"/>
     <col min="4" max="4" width="16" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.1296296296296" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.1111111111111" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.1111111111111" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="2" customWidth="1"/>
-    <col min="10" max="11" width="19.5" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="14.2222222222222" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.1296296296296" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.1111111111111" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.1111111111111" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="2" customWidth="1"/>
+    <col min="11" max="12" width="19.5" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:17">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1224,7 +1231,7 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1245,474 +1252,504 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="6" t="s">
+      <c r="O1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="R1" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12" spans="1:17">
+    <row r="2" s="1" customFormat="1" ht="12" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>14</v>
+      <c r="M2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="3" s="1" customFormat="1" ht="12" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="4" s="1" customFormat="1" ht="12" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="5" t="str">
-        <f>M5&amp;"|"&amp;N5&amp;";"&amp;P5&amp;"|"&amp;Q5</f>
+      <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="6" t="str">
+        <f t="shared" ref="G5:G10" si="0">N5&amp;"|"&amp;O5&amp;";"&amp;Q5&amp;"|"&amp;R5</f>
         <v>1025|2;1032|4</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="H5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="2">
         <v>50</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>20</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>1</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>10000</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="2">
+      <c r="M5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="2">
         <v>1025</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5" s="2">
         <v>2</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="2">
+      <c r="P5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="2">
         <v>1032</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="R5" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="5" t="str">
-        <f>M6&amp;"|"&amp;N6&amp;";"&amp;P6&amp;"|"&amp;Q6</f>
+      <c r="B6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>1026|2;1031|4</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="H6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="2">
         <v>50</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>20</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>2</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>10000</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="2">
+      <c r="M6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="2">
         <v>1026</v>
       </c>
-      <c r="N6" s="2">
+      <c r="O6" s="2">
         <v>2</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P6" s="2">
+      <c r="P6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="2">
         <v>1031</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="R6" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="5" t="str">
-        <f>M7&amp;"|"&amp;N7&amp;";"&amp;P7&amp;"|"&amp;Q7</f>
+      <c r="B7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>1027|2;1033|4</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="H7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="2">
         <v>100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>40</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>3</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>10000</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="2">
+      <c r="M7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="2">
         <v>1027</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>2</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P7" s="2">
+      <c r="P7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="2">
         <v>1033</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="5" t="str">
-        <f>M8&amp;"|"&amp;N8&amp;";"&amp;P8&amp;"|"&amp;Q8</f>
+      <c r="B8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>1028|2;1034|4</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="H8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="2">
         <v>100</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>40</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>4</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>10000</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8" s="2">
+      <c r="M8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="2">
         <v>1028</v>
       </c>
-      <c r="N8" s="2">
+      <c r="O8" s="2">
         <v>2</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P8" s="2">
+      <c r="P8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="2">
         <v>1034</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="R8" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="5" t="str">
-        <f>M9&amp;"|"&amp;N9&amp;";"&amp;P9&amp;"|"&amp;Q9</f>
+      <c r="B9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>1029|2;1035|4</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="H9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="2">
         <v>150</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>60</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>5</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>10000</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9" s="2">
+      <c r="M9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="2">
         <v>1029</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="2">
         <v>2</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P9" s="2">
+      <c r="P9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q9" s="2">
         <v>1035</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="R9" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="5" t="str">
-        <f>M10&amp;"|"&amp;N10&amp;";"&amp;P10&amp;"|"&amp;Q10</f>
+      <c r="B10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>1030|2;1036|4</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="H10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="2">
         <v>150</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <v>60</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>6</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>10000</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10" s="2">
+      <c r="M10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="2">
         <v>1030</v>
       </c>
-      <c r="N10" s="2">
+      <c r="O10" s="2">
         <v>2</v>
       </c>
-      <c r="O10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" s="2">
+      <c r="P10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q10" s="2">
         <v>1036</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="R10" s="2">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:H15">
+  <sortState ref="A3:I15">
     <sortCondition ref="A5"/>
   </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/Sources/gameplay/Synthesis/FoodSynthesisConfig.xlsx
+++ b/Tables/Sources/gameplay/Synthesis/FoodSynthesisConfig.xlsx
@@ -189,10 +189,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -211,14 +211,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,7 +233,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,13 +331,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -262,83 +339,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -348,7 +348,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,19 +375,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,7 +477,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,7 +507,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,49 +525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,79 +537,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,32 +586,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -641,12 +619,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -667,17 +658,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,10 +687,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -699,133 +699,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1200,12 +1200,12 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E$1:E$1048576"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.11111111111111" style="2" customWidth="1"/>
     <col min="2" max="3" width="10.8796296296296" style="2" customWidth="1"/>
     <col min="4" max="4" width="16" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.2222222222222" style="2" customWidth="1"/>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="2">
-        <v>1</v>
+        <v>1101</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>29</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="2">
-        <v>2</v>
+        <v>1102</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>35</v>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="2">
-        <v>3</v>
+        <v>1103</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>39</v>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="2">
-        <v>4</v>
+        <v>1104</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>43</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="2">
-        <v>5</v>
+        <v>1105</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>47</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="2">
-        <v>6</v>
+        <v>1106</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>51</v>

--- a/Tables/Sources/gameplay/Synthesis/FoodSynthesisConfig.xlsx
+++ b/Tables/Sources/gameplay/Synthesis/FoodSynthesisConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>Name1</t>
   </si>
   <si>
     <t>Name</t>
@@ -189,10 +192,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -210,8 +213,93 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,6 +309,21 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,57 +335,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -291,64 +343,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,43 +378,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,79 +540,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,55 +552,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,11 +589,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,7 +600,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,6 +620,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -630,30 +642,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,16 +669,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -699,133 +702,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1200,7 +1203,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:A10"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D15:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1376,34 +1379,34 @@
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1411,26 +1414,26 @@
         <v>1101</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5" s="6" t="str">
         <f t="shared" ref="G5:G10" si="0">N5&amp;"|"&amp;O5&amp;";"&amp;Q5&amp;"|"&amp;R5</f>
         <v>1025|2;1032|4</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" s="2">
         <v>50</v>
@@ -1445,7 +1448,7 @@
         <v>10000</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N5" s="2">
         <v>1025</v>
@@ -1454,7 +1457,7 @@
         <v>2</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q5" s="2">
         <v>1032</v>
@@ -1468,26 +1471,26 @@
         <v>1102</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>1026|2;1031|4</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I6" s="2">
         <v>50</v>
@@ -1502,7 +1505,7 @@
         <v>10000</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N6" s="2">
         <v>1026</v>
@@ -1511,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="2">
         <v>1031</v>
@@ -1525,26 +1528,26 @@
         <v>1103</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>1027|2;1033|4</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I7" s="2">
         <v>100</v>
@@ -1559,7 +1562,7 @@
         <v>10000</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N7" s="2">
         <v>1027</v>
@@ -1568,7 +1571,7 @@
         <v>2</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q7" s="2">
         <v>1033</v>
@@ -1582,26 +1585,26 @@
         <v>1104</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>1028|2;1034|4</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I8" s="2">
         <v>100</v>
@@ -1616,7 +1619,7 @@
         <v>10000</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N8" s="2">
         <v>1028</v>
@@ -1625,7 +1628,7 @@
         <v>2</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="2">
         <v>1034</v>
@@ -1639,26 +1642,26 @@
         <v>1105</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2">
         <v>3</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>1029|2;1035|4</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I9" s="2">
         <v>150</v>
@@ -1673,7 +1676,7 @@
         <v>10000</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N9" s="2">
         <v>1029</v>
@@ -1682,7 +1685,7 @@
         <v>2</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q9" s="2">
         <v>1035</v>
@@ -1696,26 +1699,26 @@
         <v>1106</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E10" s="2">
         <v>3</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>1030|2;1036|4</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I10" s="2">
         <v>150</v>
@@ -1730,7 +1733,7 @@
         <v>10000</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N10" s="2">
         <v>1030</v>
@@ -1739,7 +1742,7 @@
         <v>2</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="2">
         <v>1036</v>

--- a/Tables/Sources/gameplay/Synthesis/FoodSynthesisConfig.xlsx
+++ b/Tables/Sources/gameplay/Synthesis/FoodSynthesisConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -28,7 +28,7 @@
     <t>贴图</t>
   </si>
   <si>
-    <t>品质(道具名称及道具框颜色，1-红色，2-紫色，3-黑色)</t>
+    <t>品质(白色-普通-Normal；绿色-进阶-Advanced；蓝色-稀有-Rare；紫色-史诗-Epic；红色-传说-Legendary；金色-不朽-Immortal)</t>
   </si>
   <si>
     <t>说明</t>
@@ -115,10 +115,13 @@
     <t>SnapperInCevicheSauce</t>
   </si>
   <si>
+    <t>Normal</t>
+  </si>
+  <si>
     <t>A good thing.</t>
   </si>
   <si>
-    <t>Food_AddIslandOutput</t>
+    <t>FoodAddIslandOutput</t>
   </si>
   <si>
     <t>鲷鱼</t>
@@ -193,9 +196,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -213,6 +216,73 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -229,6 +299,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -238,14 +316,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,7 +324,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,58 +338,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -327,22 +346,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -378,13 +381,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,169 +561,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,11 +590,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,6 +630,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,32 +660,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,23 +682,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,10 +693,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -702,133 +705,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1203,7 +1206,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D15:D16"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1347,7 +1350,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>17</v>
@@ -1422,21 +1425,21 @@
       <c r="D5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="2">
-        <v>1</v>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" s="6" t="str">
         <f t="shared" ref="G5:G10" si="0">N5&amp;"|"&amp;O5&amp;";"&amp;Q5&amp;"|"&amp;R5</f>
         <v>1025|2;1032|4</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I5" s="2">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="J5" s="2">
         <v>20</v>
@@ -1448,7 +1451,7 @@
         <v>10000</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N5" s="2">
         <v>1025</v>
@@ -1457,7 +1460,7 @@
         <v>2</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q5" s="2">
         <v>1032</v>
@@ -1471,29 +1474,29 @@
         <v>1102</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>1026|2;1031|4</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I6" s="2">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="2">
         <v>20</v>
@@ -1505,7 +1508,7 @@
         <v>10000</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N6" s="2">
         <v>1026</v>
@@ -1514,7 +1517,7 @@
         <v>2</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q6" s="2">
         <v>1031</v>
@@ -1528,29 +1531,29 @@
         <v>1103</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2</v>
+        <v>42</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>1027|2;1033|4</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I7" s="2">
-        <v>100</v>
+        <v>1.1</v>
       </c>
       <c r="J7" s="2">
         <v>40</v>
@@ -1562,7 +1565,7 @@
         <v>10000</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N7" s="2">
         <v>1027</v>
@@ -1571,7 +1574,7 @@
         <v>2</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="2">
         <v>1033</v>
@@ -1585,29 +1588,29 @@
         <v>1104</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2</v>
+        <v>46</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>1028|2;1034|4</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I8" s="2">
-        <v>100</v>
+        <v>1.1</v>
       </c>
       <c r="J8" s="2">
         <v>40</v>
@@ -1619,7 +1622,7 @@
         <v>10000</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N8" s="2">
         <v>1028</v>
@@ -1628,7 +1631,7 @@
         <v>2</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="2">
         <v>1034</v>
@@ -1642,29 +1645,29 @@
         <v>1105</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="2">
-        <v>3</v>
+        <v>50</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>1029|2;1035|4</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I9" s="2">
-        <v>150</v>
+        <v>1.5</v>
       </c>
       <c r="J9" s="2">
         <v>60</v>
@@ -1676,7 +1679,7 @@
         <v>10000</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N9" s="2">
         <v>1029</v>
@@ -1685,7 +1688,7 @@
         <v>2</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="2">
         <v>1035</v>
@@ -1699,29 +1702,29 @@
         <v>1106</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="2">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>1030|2;1036|4</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I10" s="2">
-        <v>150</v>
+        <v>1.5</v>
       </c>
       <c r="J10" s="2">
         <v>60</v>
@@ -1733,7 +1736,7 @@
         <v>10000</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N10" s="2">
         <v>1030</v>
@@ -1742,7 +1745,7 @@
         <v>2</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="2">
         <v>1036</v>
